--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45798.64248842592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45820.77337962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45202</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45841.50255787037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44454</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44453</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44571.39400462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44267.34533564815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45735.37159722222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>45019</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45253</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44804</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45079</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44984.44930555556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>45919.45657407407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45988</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45988</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46056.48974537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44596.48228009259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44840.49690972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44313.69768518519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44457.73708333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44613.42834490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44260</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44315</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44306.69969907407</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44376.64215277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44244.43886574074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44266.51686342592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44316.47613425926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44457</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44379</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44763</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44363</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44263.45048611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44846.45591435185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44592.43043981482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44839.38984953704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44657</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44816</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44586</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44862</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44457.48248842593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44592.43548611111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44883.58832175926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44865</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44263.45508101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44314.44883101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44267.35119212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44595.30431712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44308</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44452.57027777778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44489.73731481482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44347</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44517.45138888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44280.74366898148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44466</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44466</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44475</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44564.29108796296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>44532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44536</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>44837.45384259259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44336.49710648148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44879.44567129629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>44711.44097222222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>44652</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44795.44049768519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44250</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44368</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44277.71694444444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44275</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44489.55222222222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44252</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44475.44050925926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44489.5469212963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44636.42491898148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44516</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44267.34746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44245</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44447.62274305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44580.56461805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44748</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44812</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44795.44729166666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44853.35319444445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45288.611875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45288.61378472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>45362.47046296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44849</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>45196.43013888889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44988</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44861</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44407.54237268519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44763.48737268519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44958.41222222222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>45001.63918981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44949.51655092592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>45159.31636574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>45054.50476851852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>45770.66146990741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44958.41121527777</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44613.43204861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>45036</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>44792.32658564814</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44364.77944444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44890</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>45098.42185185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>45075</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44910.63961805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44776</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>45240</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45001.76078703703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45001.76564814815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45350.58255787037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>45222.49922453704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45155.71377314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44683.41577546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>44683.41893518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>44879.36008101852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45327.49581018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45309.58023148148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>44313</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44987</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44998.49670138889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45798.64680555555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>45051.65592592592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>45551.38452546296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45798.64412037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45573.39606481481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45567.47046296296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45219.5134375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>45219</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45198</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45624.73905092593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>45488.40027777778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>45163</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>45163.48689814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44938</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>45618.43155092592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>45050.68993055556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45208</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>45628.50152777778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44967.37295138889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45195.3313425926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45813.37483796296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>45895.39548611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44984</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44298.81420138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>45695.48090277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45532.46675925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>45407.32179398148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>45330</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44235</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44293.75581018518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44861.54428240741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45820.77099537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>45063.61914351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44949</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45909.54958333333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>45798.65099537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45908.70774305556</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45909.51159722222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45251.51339120371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44827.41934027777</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45825.4537037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45908.70886574074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44980.3834375</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>45826.51649305555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44889.45887731481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>45250.61736111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>45827.37856481481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45913.82554398148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>45000.35226851852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>45916.65212962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>45917.61917824074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45917.61165509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45826.37248842593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45826.3741087963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45917.61449074074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45917.38631944444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45917.58608796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45917.58754629629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45917.56072916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45917.38491898148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45917.3884837963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45919.60270833333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44536</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45271.4494212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44741.63403935185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45832.38409722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45924.54427083334</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>44944</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45925.57012731482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45925.57560185185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45924.54741898148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45225</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45924.55221064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45583.32575231481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45930.54461805556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45930.54315972222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45930.46331018519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45834.45310185185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44739</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45838.62175925926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45838.5834837963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>45839.65097222223</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44965.65167824074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44942.52636574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45222.49363425926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45222.55752314815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45932.66504629629</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44914.46178240741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45330</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45075</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44795</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>45271.43061342592</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44795.45020833334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44902.68466435185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45145.38140046296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44295.30354166667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45943.68887731482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45250.90488425926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45944.39645833334</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44671</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>45947.39032407408</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45946.85777777778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45950.35015046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45145.38269675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>45950.34201388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45951.4453587963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45260.57091435185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45288.60931712963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45860.63878472222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45860.64045138889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45869.60849537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45869.6046412037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45869.606875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45869.60936342592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45736.59657407407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45751.39824074074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45335.60993055555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45958.44385416667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44246.44319444444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45196</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44250</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45224.50876157408</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45880.45743055556</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45880.45618055556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45713.50678240741</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45016.59216435185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45252.36465277777</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45880.46145833333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45967.5281712963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44490.75412037037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45966.67945601852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45967</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45408.36670138889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45330</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45968.48231481481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45972.32638888889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45447.55760416666</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44600.39641203704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45672</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>44613.35957175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>44706</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>44942.3509837963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45975.69686342592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45975.69922453703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45884.34365740741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45975.69505787037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>44998.49439814815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>45222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44965</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45981.58409722222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45979.76445601852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45329</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>44270.66569444445</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45982.54444444444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45252</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45982.55625</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45985.36982638889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45139</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45369.43166666666</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45001.74619212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45001.75320601852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45624.70769675926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>44420</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44474</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45989.61413194444</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45054.50784722222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44841</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>46035.55336805555</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45194.58229166667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>44495.34590277778</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>45716.5484375</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>45208.36819444445</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>45208</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>46035.54554398148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45040.61262731482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45288.60790509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45182.51306712963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45720.51217592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45058.46469907407</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45404.55552083333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45999.55164351852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45999.56184027778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45999</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>45977</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45977</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>46001.65333333334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45222.71957175926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>46001.51266203704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44694.55715277778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>45308</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>45145.48425925926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>46001.51538194445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>44988</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>46001.65584490741</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>44827</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45250.91508101852</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>45250.91861111111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>45196.42462962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>45770.65423611111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44298.81888888889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44943</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44883.58351851852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44949.49581018519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45183.36513888889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44992</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45155.63342592592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45201.49274305555</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>45440.6784837963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44958.36125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44411.6815625</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>46056.41253472222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45790</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>44893.45002314815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>44826.84994212963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44725.47578703704</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44600.35996527778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45029.41724537037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>45096.62898148148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>46059.48814814815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44370.42773148148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>45194.58465277778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44977</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45113.31487268519</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45113.32070601852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45546.44376157408</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45093.37421296296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44881.33478009259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45328</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45610.36018518519</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>45772.66631944444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45001.76833333333</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>44938.35186342592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45161.32863425926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45084.49240740741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>44725</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45113.31606481481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45672</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45250.52269675926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45250.91230324074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45243.37883101852</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44739.3877662037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45113.31704861111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45113.32241898148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44722</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45098.42465277778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>44457.48010416667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45425.44631944445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>44977.45693287037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44790.65747685185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45614.42900462963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44985.79425925926</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>45093.38070601852</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>45093</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>45426</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44949.49305555555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>45552.63032407407</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>44950.45729166667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45518.36287037037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45008.43048611111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45178.42225694445</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44637.38395833333</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44900</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45695.4821875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44851</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44519.39357638889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>44336.37304398148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45708.68336805556</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44511.35108796296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45601.87053240741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>44640</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45082.58664351852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>45426</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>45012.42086805555</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>45583.33034722223</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>45716.56181712963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>45219</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45225</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45223</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45280.554375</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>45513.47613425926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45513.47923611111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45771.72923611111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45771.73158564815</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45243.67643518518</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45370.42829861111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45636</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>45734.61841435185</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45210</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45182.50636574074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45324</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>45252.66114583334</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>45474.60385416666</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44942.51495370371</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44657.41376157408</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45194</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>45182.48377314815</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>45362.46388888889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>45645.71836805555</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44502</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>45027.65821759259</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>45323</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>45093</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>45253</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44277</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>45352.9037962963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45223</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45607.53863425926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44284.46223379629</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44284.4637037037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>45713.41635416666</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>45198.34445601852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>45167</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45167</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45752.7362037037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44986.71053240741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>45713.87648148148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45299.48002314815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45474.5287962963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>45694.59543981482</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>45665.49780092593</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>45785.66829861111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45645.55591435185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45012.42983796296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45330</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29405,7 +29405,7 @@
         <v>45474.51847222223</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45527.48665509259</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45665.50096064815</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45797.40478009259</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45798.64248842592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45820.77337962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45202</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45841.50255787037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44454</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44453</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44571.39400462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44267.34533564815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45735.37159722222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>45019</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45253</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44804</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45079</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44984.44930555556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>45919.45657407407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45988</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45988</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46056.48974537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44596.48228009259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44840.49690972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44313.69768518519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44457.73708333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44613.42834490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44260</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44315</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44306.69969907407</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44376.64215277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44244.43886574074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44266.51686342592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44316.47613425926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44457</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44379</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44763</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44363</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44263.45048611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44846.45591435185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44592.43043981482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44839.38984953704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44657</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44816</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44586</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44862</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44457.48248842593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44592.43548611111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44883.58832175926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44865</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44263.45508101852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44314.44883101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44267.35119212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44595.30431712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44308</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44452.57027777778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44489.73731481482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44347</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44517.45138888889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44280.74366898148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44466</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44466</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44475</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44564.29108796296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>44532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44536</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>44837.45384259259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44336.49710648148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44447</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44879.44567129629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>44711.44097222222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>44652</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44795.44049768519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44250</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44368</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44277.71694444444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44275</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44243</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44489.55222222222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44252</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44475.44050925926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44489.5469212963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44636.42491898148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44811</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44811</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44516</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44267.34746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44245</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44447.62274305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44580.56461805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44748</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44812</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44795.44729166666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44853.35319444445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45288.611875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45288.61378472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>45362.47046296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44849</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45426</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>45196.43013888889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44988</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44861</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44407.54237268519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44763.48737268519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44958.41222222222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>45001.63918981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44949.51655092592</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>45159.31636574074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>45054.50476851852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>45770.66146990741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44958.41121527777</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44613.43204861111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>45036</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>44792.32658564814</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44364.77944444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44890</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>45098.42185185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>45075</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44910.63961805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44776</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>45240</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45001.76078703703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45001.76564814815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45350.58255787037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>45222.49922453704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45155.71377314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44683.41577546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>44683.41893518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>44879.36008101852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45327.49581018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45309.58023148148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>44313</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44987</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44998.49670138889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45798.64680555555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>45051.65592592592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>45551.38452546296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45798.64412037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45573.39606481481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>45567.47046296296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45219.5134375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>45219</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45198</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45624.73905092593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>45488.40027777778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>45163</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>45163.48689814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44938</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>45618.43155092592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>45050.68993055556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44474</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>45208</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>45628.50152777778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44967.37295138889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45195.3313425926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>45813.37483796296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>45895.39548611111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44984</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44298.81420138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>45695.48090277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45532.46675925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>45407.32179398148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>45330</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44235</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>44293.75581018518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44861.54428240741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45820.77099537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>45063.61914351852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>44516</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44949</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45909.54958333333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>45798.65099537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45908.70774305556</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45909.51159722222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45251.51339120371</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44827.41934027777</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45825.4537037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45908.70886574074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44980.3834375</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>45826.51649305555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44889.45887731481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>45250.61736111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>45827.37856481481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45913.82554398148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>45000.35226851852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>45916.65212962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>45917.61917824074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45917.61165509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45826.37248842593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45826.3741087963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45917.61449074074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45917.38631944444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45917.58608796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45917.58754629629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45917.56072916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45917.38491898148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45917.3884837963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45919.60270833333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44536</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45271.4494212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44741.63403935185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45832.38409722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45924.54427083334</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>44944</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45925.57012731482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45925.57560185185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>45924.54741898148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45225</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45924.55221064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45583.32575231481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45930.54461805556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45930.54315972222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45930.46331018519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45834.45310185185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44739</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45838.62175925926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45838.5834837963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>45839.65097222223</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44965.65167824074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44942.52636574074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45222.49363425926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45222.55752314815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45932.66504629629</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44914.46178240741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45330</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45075</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>44795</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>45271.43061342592</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44795.45020833334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44902.68466435185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45145.38140046296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44295.30354166667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45943.68887731482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45250.90488425926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45944.39645833334</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>44671</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>45947.39032407408</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45946.85777777778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45950.35015046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45145.38269675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>45950.34201388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45951.4453587963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45260.57091435185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45288.60931712963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45860.63878472222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45860.64045138889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45869.60849537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45869.6046412037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45869.606875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45869.60936342592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45736.59657407407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45751.39824074074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45335.60993055555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45958.44385416667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44246.44319444444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45196</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44250</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45224.50876157408</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45880.45743055556</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45880.45618055556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45713.50678240741</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45016.59216435185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45252.36465277777</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45880.46145833333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45967.5281712963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44490.75412037037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45966.67945601852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45967</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45408.36670138889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>45330</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45968.48231481481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45972.32638888889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45447.55760416666</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44600.39641203704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45672</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>44613.35957175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>44706</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>44942.3509837963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45975.69686342592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45975.69922453703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45884.34365740741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45975.69505787037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>44998.49439814815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>45222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>44965</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45981.58409722222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45979.76445601852</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45329</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>44270.66569444445</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45982.54444444444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45252</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45982.55625</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45985.36982638889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45139</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45369.43166666666</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45001.74619212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45001.75320601852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45624.70769675926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>44420</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44474</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45989.61413194444</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45054.50784722222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45988</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45988</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44841</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>46035.55336805555</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45194.58229166667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>44495.34590277778</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>45716.5484375</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>45208.36819444445</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>45208</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>46035.54554398148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45040.61262731482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45288.60790509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45182.51306712963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45720.51217592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45058.46469907407</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45404.55552083333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45999.55164351852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45999.56184027778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45999</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>45977</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45977</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>46001.65333333334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
         <v>45222.71957175926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>46001.51266203704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44694.55715277778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>45308</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         <v>45145.48425925926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>46001.51538194445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21472,7 +21472,7 @@
         <v>44988</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21529,7 +21529,7 @@
         <v>46001.65584490741</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>44827</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45250.91508101852</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>45250.91861111111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>45196.42462962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>45770.65423611111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44298.81888888889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44943</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44883.58351851852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44949.49581018519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45183.36513888889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44992</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45155.63342592592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45201.49274305555</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>45440.6784837963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44958.36125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44411.6815625</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>46056.41253472222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45790</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>44893.45002314815</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>44826.84994212963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>44725.47578703704</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44600.35996527778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45029.41724537037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>45096.62898148148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>46059.48814814815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44370.42773148148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>45194.58465277778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>44977</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45113.31487268519</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45113.32070601852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45546.44376157408</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45093.37421296296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44881.33478009259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45328</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45610.36018518519</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>45772.66631944444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45001.76833333333</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>44938.35186342592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45161.32863425926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45084.49240740741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>44725</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>45113.31606481481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>44468</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45672</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45250.52269675926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45250.91230324074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45243.37883101852</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>44739.3877662037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45113.31704861111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45113.32241898148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44722</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45098.42465277778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>44457.48010416667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45425.44631944445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>44977.45693287037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44790.65747685185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45614.42900462963</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44985.79425925926</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>45093.38070601852</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>45093</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>45426</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44949.49305555555</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>45552.63032407407</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>44950.45729166667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45518.36287037037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45008.43048611111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45178.42225694445</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>44637.38395833333</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44900</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45695.4821875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44851</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44519.39357638889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>44336.37304398148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45708.68336805556</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44511.35108796296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45601.87053240741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>44640</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45082.58664351852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>45426</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>45012.42086805555</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>45583.33034722223</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>45716.56181712963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>45219</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45225</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45223</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45280.554375</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>45513.47613425926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45513.47923611111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45771.72923611111</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45771.73158564815</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45243.67643518518</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45370.42829861111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45636</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>45734.61841435185</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45210</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45182.50636574074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45324</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>45252.66114583334</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>45474.60385416666</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44942.51495370371</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44657.41376157408</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>45194</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>45182.48377314815</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>45362.46388888889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>45645.71836805555</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44502</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>45027.65821759259</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>45323</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>45093</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>45253</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44277</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>45352.9037962963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45223</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45607.53863425926</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44284.46223379629</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44284.4637037037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>45713.41635416666</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>45198.34445601852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>45167</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45167</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>45752.7362037037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44986.71053240741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>45713.87648148148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45299.48002314815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45474.5287962963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>45694.59543981482</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>45665.49780092593</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>45785.66829861111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45645.55591435185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45012.42983796296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45330</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29405,7 +29405,7 @@
         <v>45474.51847222223</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45527.48665509259</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45665.50096064815</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45797.40478009259</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45820.77337962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45798.64248842592</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45841.50255787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45202</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44454</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44453</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44571.39400462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44267.34533564815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45735.37159722222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>45019</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45253</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44804</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45079</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44984.44930555556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>45919.45657407407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45988</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45988</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46056.48974537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44596.48228009259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44840.49690972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44313.69768518519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44457.73708333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44613.42834490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44277</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44260</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44315</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44306.69969907407</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44376.64215277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44316.47613425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44266.51686342592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44457</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44379</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44763</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44363</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44263.45048611111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44846.45591435185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44592.43043981482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44530</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44839.38984953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44657</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44816</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44586</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44862</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44457.48248842593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44592.43548611111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44883.58832175926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44263.45508101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44595.30431712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44314.44883101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44267.35119212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44308</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44452.57027777778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44489.73731481482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44517.45138888889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44280.74366898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44466</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44564.29108796296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44466</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44514</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>44536</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44837.45384259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>44336.49710648148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44447</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44879.44567129629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44711.44097222222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>44652</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>44795.44049768519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44250</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44277.71694444444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44275</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44252</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44489.55222222222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44475.44050925926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44489.5469212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44636.42491898148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44811</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44811</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44267.34746527778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44447.62274305556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44748</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44580.56461805556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44812</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44795.44729166666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45288.611875</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>45288.61378472222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45196.43013888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45362.47046296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44853.35319444445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44988</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44958.41222222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44407.54237268519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45001.63918981481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44763.48737268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44849</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44949.51655092592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45054.50476851852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>45159.31636574074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>45036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>45770.66146990741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44364.77944444444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44958.41121527777</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44613.43204861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44890</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44792.32658564814</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>45098.42185185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45075</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44910.63961805555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44776</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>45240</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45350.58255787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>45222.49922453704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44879</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45001.76078703703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45001.76564814815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44683.41577546296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>44683.41893518518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45155.71377314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44879.36008101852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45327.49581018519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45309.58023148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>44313</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44998.49670138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>44987</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>44593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45051.65592592592</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>45198</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45567.47046296296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>45219.5134375</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>45219</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>45624.73905092593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45163</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45163.48689814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44938</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>45050.68993055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45628.50152777778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44967.37295138889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45195.3313425926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44298.81420138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44474</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45695.48090277778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45532.46675925926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45407.32179398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45330</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>45820.77099537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44293.75581018518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44861.54428240741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45825.4537037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45063.61914351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44516</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45826.51649305555</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>44949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45827.37856481481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45895.39548611111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45826.37248842593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45826.3741087963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45251.51339120371</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44827.41934027777</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44980.3834375</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44889.45887731481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45832.38409722222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45250.61736111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45000.35226851852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45834.45310185185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45838.62175925926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45271.4494212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44741.63403935185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>45838.5834837963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45909.54958333333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45839.65097222223</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>45798.65099537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45908.70774305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45909.51159722222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44944</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>45908.70886574074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>45225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>45913.82554398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45583.32575231481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45916.65212962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45917.61917824074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>45917.61165509259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>45917.61449074074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45917.38631944444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45917.58608796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>45917.58754629629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>45917.56072916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45917.38491898148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45917.3884837963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>45919.60270833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44965.65167824074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44942.52636574074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45222.49363425926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45222.55752314815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45860.63878472222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45860.64045138889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45924.54427083334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44914.46178240741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>45925.57012731482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>45925.57560185185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45924.54741898148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>45924.55221064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>45869.60849537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45869.6046412037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45869.606875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45869.60936342592</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45330</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45075</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>44795</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45271.43061342592</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45930.54461805556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45930.54315972222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44795.45020833334</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44902.68466435185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45930.46331018519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45145.38140046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44295.30354166667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45250.90488425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44671</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45880.45743055556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45880.45618055556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45713.50678240741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45932.66504629629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45145.38269675926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45880.46145833333</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45260.57091435185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45288.60931712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45736.59657407407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45751.39824074074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45943.68887731482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45884.34365740741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45335.60993055555</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45944.39645833334</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45947.39032407408</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45196</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45946.85777777778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44250</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45950.35015046296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45950.34201388889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45951.4453587963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45224.50876157408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45016.59216435185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45252.36465277777</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44490.75412037037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45408.36670138889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45958.44385416667</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45330</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45447.55760416666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44600.39641203704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45672</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44613.35957175926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44706</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44942.3509837963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44998.49439814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>44965</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45967.5281712963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45132</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45966.67945601852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45329</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45967</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44270.66569444445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>45252</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45139</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45968.48231481481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45972.32638888889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45369.43166666666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>45001.74619212963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>45001.75320601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>45624.70769675926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44420</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45975.69686342592</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45975.69922453703</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44474</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>45975.69505787037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45981.58409722222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45979.76445601852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45054.50784722222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45982.54444444444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44841</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45982.55625</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45985.36982638889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45194.58229166667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>44495.34590277778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45716.5484375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45208.36819444445</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45989.61413194444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45040.61262731482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>46035.55336805555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45288.60790509259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>46035.54554398148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45182.51306712963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45720.51217592593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45058.46469907407</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45404.55552083333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45222.71957175926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45999.55164351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45999.56184027778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44694.55715277778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45308</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>45145.48425925926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>46001.65333333334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>46001.51266203704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44827</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>46001.51538194445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>45250.91508101852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45250.91861111111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>46001.65584490741</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>45196.42462962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45770.65423611111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44298.81888888889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44943</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44883.58351851852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44949.49581018519</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45183.36513888889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45155.63342592592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45201.49274305555</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>45440.6784837963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44476</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>44958.36125</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>44411.6815625</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44893.45002314815</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44826.84994212963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44725.47578703704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44600.35996527778</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>46056.41253472222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45978</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45029.41724537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45096.62898148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>45790</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44529</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>46059.48814814815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44370.42773148148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45194.58465277778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>46063.40934027778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44977</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>45113.31487268519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>45113.32070601852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>46063.42826388889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45546.44376157408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>46063.43015046296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>45093</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45093.37421296296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>44881.33478009259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>45328</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45610.36018518519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45772.66631944444</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45001.76833333333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44938.35186342592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>45161.32863425926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>45084.49240740741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44725</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>45113.31606481481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>46066.23045138889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44468</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45672</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>44958</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45250.52269675926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45250.91230324074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>46070.36666666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45243.37883101852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>44739.3877662037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45113.31704861111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45113.32241898148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44722</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45098.42465277778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44457.48010416667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>46070</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45425.44631944445</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44977.45693287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44790.65747685185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45614.42900462963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>44985.79425925926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45093.38070601852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45093</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45426</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44949.49305555555</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45552.63032407407</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44950.45729166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45518.36287037037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45008.43048611111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45178.42225694445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44637.38395833333</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44900</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45695.4821875</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44851</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44519.39357638889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44336.37304398148</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45708.68336805556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44511.35108796296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45601.87053240741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44640</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>45082.58664351852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>45426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45012.42086805555</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45583.33034722223</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45716.56181712963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45219</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45225</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45223</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45280.554375</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45513.47613425926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45513.47923611111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45771.72923611111</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45771.73158564815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45243.67643518518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45370.42829861111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45636</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>45734.61841435185</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>45210</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>45182.50636574074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45324</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45252.66114583334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45474.60385416666</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44942.51495370371</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44657.41376157408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45194</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45182.48377314815</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45362.46388888889</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45645.71836805555</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44502</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>45027.65821759259</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>45323</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45253</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44277</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45352.9037962963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45223</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45607.53863425926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44284.46223379629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44284.4637037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45713.41635416666</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45198.34445601852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45167</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>45167</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45752.7362037037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44986.71053240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45713.87648148148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45299.48002314815</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45474.5287962963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45694.59543981482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45665.49780092593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45785.66829861111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45645.55591435185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45012.42983796296</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45330</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45474.51847222223</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44679</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45527.48665509259</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45665.50096064815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45797.40478009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45798.64680555555</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45551.38452546296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45798.64412037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45573.39606481481</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45488.40027777778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45618.43155092592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45813.37483796296</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45820.77337962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45798.64248842592</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45841.50255787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45202</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44454</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44453</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44571.39400462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44267.34533564815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45735.37159722222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>45019</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45253</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44804</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45079</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>44984.44930555556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>45919.45657407407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45988</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45988</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46056.48974537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44596.48228009259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45350</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44840.49690972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44313.69768518519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44457.73708333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44613.42834490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44434</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44277</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44260</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44315</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44306.69969907407</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44376.64215277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44316.47613425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44266.51686342592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44457</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44379</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44763</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44363</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44263.45048611111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44846.45591435185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44592.43043981482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44530</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44839.38984953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44657</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44816</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44586</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44862</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44457.48248842593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44592.43548611111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44883.58832175926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44263.45508101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44595.30431712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44314.44883101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44267.35119212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44308</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44452.57027777778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44489.73731481482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44517.45138888889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44280.74366898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44466</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44564.29108796296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44466</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44514</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>44536</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44837.45384259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>44336.49710648148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44447</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44879.44567129629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44711.44097222222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>44652</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>44795.44049768519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44250</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44368</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44277.71694444444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44275</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44252</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44489.55222222222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44475.44050925926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44489.5469212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44636.42491898148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44811</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44811</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44516</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44267.34746527778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44447.62274305556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44748</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44580.56461805556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44658</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44812</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44795.44729166666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45288.611875</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>45288.61378472222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45426</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45196.43013888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45362.47046296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44853.35319444445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44988</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44958.41222222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44407.54237268519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45001.63918981481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44763.48737268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44849</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44949.51655092592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45054.50476851852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>45159.31636574074</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>45036</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>45770.66146990741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44364.77944444444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>44958.41121527777</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>44613.43204861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44890</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44792.32658564814</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>45098.42185185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45075</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44910.63961805555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44776</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>45240</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45350.58255787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>45222.49922453704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44879</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45001.76078703703</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45001.76564814815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44683.41577546296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>44683.41893518518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45155.71377314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44879.36008101852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45327.49581018519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45309.58023148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>44313</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44998.49670138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>44987</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>44593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45051.65592592592</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>45198</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45567.47046296296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>45219.5134375</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>45219</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>45624.73905092593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45163</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45163.48689814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>44938</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>45050.68993055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45208</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45628.50152777778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>44967.37295138889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45195.3313425926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>44984</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44298.81420138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>44474</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45695.48090277778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45532.46675925926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45407.32179398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45330</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>45820.77099537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44293.75581018518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44861.54428240741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45825.4537037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45063.61914351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>44516</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45826.51649305555</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>44949</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45827.37856481481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45895.39548611111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45826.37248842593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45826.3741087963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45251.51339120371</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44827.41934027777</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44980.3834375</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44889.45887731481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>45832.38409722222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45250.61736111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45000.35226851852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45834.45310185185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44536</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>45838.62175925926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45271.4494212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44741.63403935185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>45838.5834837963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45909.54958333333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45839.65097222223</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>45798.65099537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45908.70774305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45909.51159722222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44944</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>45908.70886574074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>45225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13083,7 +13083,7 @@
         <v>45913.82554398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45583.32575231481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>45916.65212962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>45917.61917824074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>45917.61165509259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>45917.61449074074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>45917.38631944444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>45917.58608796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>45917.58754629629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>45917.56072916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45917.38491898148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>45917.3884837963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>45919.60270833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44965.65167824074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44942.52636574074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>45222.49363425926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45222.55752314815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45860.63878472222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>45860.64045138889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45924.54427083334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44914.46178240741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>45925.57012731482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>45925.57560185185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45924.54741898148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>45924.55221064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>45869.60849537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>45869.6046412037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45869.606875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45869.60936342592</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45330</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45075</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>44795</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45271.43061342592</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45930.54461805556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45930.54315972222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44795.45020833334</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44902.68466435185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45930.46331018519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45145.38140046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44295.30354166667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45250.90488425926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44671</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15534,7 +15534,7 @@
         <v>45880.45743055556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45880.45618055556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45713.50678240741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45932.66504629629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45145.38269675926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45880.46145833333</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45260.57091435185</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45288.60931712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45736.59657407407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45751.39824074074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45943.68887731482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45884.34365740741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45335.60993055555</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45944.39645833334</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45947.39032407408</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45196</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45946.85777777778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>44250</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45950.35015046296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45950.34201388889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45951.4453587963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45224.50876157408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45016.59216435185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45252.36465277777</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44490.75412037037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45408.36670138889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>45958.44385416667</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45330</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45447.55760416666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>44600.39641203704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45672</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>44613.35957175926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>44706</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>44942.3509837963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44998.49439814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>44965</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45967.5281712963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45132</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45966.67945601852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45329</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45967</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>44270.66569444445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>45252</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45139</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45968.48231481481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45972.32638888889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45369.43166666666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>45001.74619212963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>45001.75320601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>45624.70769675926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>44420</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45975.69686342592</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45975.69922453703</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44474</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>45975.69505787037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45981.58409722222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45979.76445601852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45054.50784722222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45982.54444444444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44841</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45982.55625</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45985.36982638889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45194.58229166667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>44495.34590277778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45716.5484375</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45988</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45208.36819444445</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45208</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45989.61413194444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45988</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45040.61262731482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45988</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>46035.55336805555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45288.60790509259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>46035.54554398148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45182.51306712963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45720.51217592593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45058.46469907407</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45404.55552083333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45222.71957175926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45999.55164351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45999.56184027778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44694.55715277778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45308</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45977</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45977</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>45145.48425925926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>46001.65333333334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>46001.51266203704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44827</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>46001.51538194445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>45250.91508101852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45250.91861111111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>46001.65584490741</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>45196.42462962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45770.65423611111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44298.81888888889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>44943</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>44883.58351851852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>44949.49581018519</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45183.36513888889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45155.63342592592</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45201.49274305555</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>45440.6784837963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44476</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>44958.36125</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>44411.6815625</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>44893.45002314815</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>44826.84994212963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44725.47578703704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44600.35996527778</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>46056.41253472222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45978</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45029.41724537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45096.62898148148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>45790</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44529</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>46059.48814814815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44370.42773148148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45194.58465277778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>46063.40934027778</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44977</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>45113.31487268519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>45113.32070601852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>46063.42826388889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>45546.44376157408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>46063.43015046296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>45093</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45093.37421296296</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>44881.33478009259</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>45328</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45610.36018518519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45772.66631944444</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45001.76833333333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44938.35186342592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>45161.32863425926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23524,7 +23524,7 @@
         <v>45084.49240740741</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44725</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>45113.31606481481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>46066.23045138889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44468</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45672</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>44958</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45250.52269675926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45250.91230324074</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>46070.36666666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45243.37883101852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>44739.3877662037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45113.31704861111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45113.32241898148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44722</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45098.42465277778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44457.48010416667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>46070</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45425.44631944445</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44977.45693287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44790.65747685185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45614.42900462963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>44985.79425925926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45093.38070601852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45093</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45426</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44949.49305555555</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45552.63032407407</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44950.45729166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45518.36287037037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45008.43048611111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45178.42225694445</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44637.38395833333</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44900</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45695.4821875</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44851</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44519.39357638889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44336.37304398148</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45708.68336805556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44511.35108796296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45601.87053240741</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44640</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>45082.58664351852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>45426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45012.42086805555</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45583.33034722223</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>45716.56181712963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45219</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>45225</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45223</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45280.554375</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>45513.47613425926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45513.47923611111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45771.72923611111</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>45771.73158564815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45243.67643518518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>45370.42829861111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45636</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>45734.61841435185</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>45210</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>45182.50636574074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45324</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45252.66114583334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45474.60385416666</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44942.51495370371</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44657.41376157408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>45194</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45182.48377314815</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45362.46388888889</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45645.71836805555</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44502</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>45027.65821759259</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>45323</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45253</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44259</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44277</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45352.9037962963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45223</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45607.53863425926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44284.46223379629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>44284.4637037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45713.41635416666</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45198.34445601852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45167</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>45167</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45752.7362037037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44986.71053240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45713.87648148148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45299.48002314815</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45474.5287962963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45694.59543981482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45665.49780092593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45785.66829861111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45645.55591435185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45012.42983796296</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45330</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45474.51847222223</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44679</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45527.48665509259</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45665.50096064815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45797.40478009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45798.64680555555</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45551.38452546296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45798.64412037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45573.39606481481</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>45488.40027777778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>45618.43155092592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45813.37483796296</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45820.77337962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45798.64248842592</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44459</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45841.50255787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>45202</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>44410</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44988</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44454</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44453</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44571.39400462963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44267.34533564815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>45350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>45919.45657407407</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45735.37159722222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45019</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44984.44930555556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>45988</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>45988</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>44596.48228009259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45253</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>46056.48974537037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>44804</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45079</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44840.49690972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44313.69768518519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44457.73708333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44277</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44613.42834490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44434</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44434</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44260</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44315</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44306.69969907407</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44376.64215277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44316.47613425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44266.51686342592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44621</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44476</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44457</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44379</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44763</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44363</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44263.45048611111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44846.45591435185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44592.43043981482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44530</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44839.38984953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44657</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44816</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44586</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44862</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44592.43548611111</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44457.48248842593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44883.58832175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44865</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44263.45508101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44595.30431712963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44314.44883101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>44267.35119212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         <v>44308</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44452.57027777778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>44489.73731481482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>44467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44347</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>44517.45138888889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>44280.74366898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>44466</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44466</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44564.29108796296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44514</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>44536</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44837.45384259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>44336.49710648148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44447</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44879.44567129629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44711.44097222222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>44652</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>44795.44049768519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44368</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44277.71694444444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44275</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44475.44050925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44489.55222222222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44489.5469212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44636.42491898148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44811</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44811</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44516</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44267.34746527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44447.62274305556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44580.56461805556</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44748</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44658</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44812</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44293.75581018518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45335.60993055555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44795</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44420</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44739</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45532.46675925926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44298.81888888889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45323</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44725.47578703704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45222.71957175926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44298.81420138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>45369.43166666666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45330</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>45093</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45093.37421296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44468</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>45426</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45250.91230324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>45327.49581018519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>45250.91508101852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>45250.91861111111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>44826.84994212963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>45308</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>45250.52269675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44853.35319444445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>44849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>44411.6815625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>44942.3509837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44949.49305555555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44516</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44889.45887731481</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44529</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44943</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44902.68466435185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44984</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45352.9037962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44881.33478009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>44511.35108796296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>44988</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44600.35996527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45884.34365740741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45098.42185185185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>44640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45001.63918981481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45001.76833333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45546.44376157408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>45008.43048611111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45636</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>45113.31606481481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>45813.37483796296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>45155.71377314815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45820.77099537037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45583.32575231481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>45720.51217592593</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>45826.37248842593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>45826.3741087963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>45895.39548611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>45825.4537037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>45826.51649305555</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45827.37856481481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>44613.43204861111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>45832.38409722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>45426</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>45908.70886574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>45908.70774305556</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45082.58664351852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>45798.65099537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>45834.45310185185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>45838.5834837963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>45838.62175925926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>45075</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         <v>45271.43061342592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>45271.4494212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>45909.51159722222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>45839.65097222223</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>44998.49439814815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45113.31487268519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45113.32070601852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45909.54958333333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44270.66569444445</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45614.42900462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>44958</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44495.34590277778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45324</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45672</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>45000.35226851852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45672</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45145.48425925926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44364.77944444444</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45913.82554398148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44992</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>45916.65212962963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45093</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>45860.63878472222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>45917.38631944444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>45860.64045138889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>45917.58608796296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45917.56072916667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>45917.58754629629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>45917.38491898148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>45917.3884837963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45917.61449074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45917.61165509259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45917.61917824074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45178.42225694445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44739.3877662037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44313</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45919.60270833333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45708.68336805556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45924.54741898148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45924.54427083334</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45924.55221064815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45925.57012731482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45869.60936342592</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44776</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45869.6046412037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45869.606875</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45925.57560185185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45869.60849537037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45930.54461805556</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44985.79425925926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45930.46331018519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>45930.54315972222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44977</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44694.55715277778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44683.41577546296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>44683.41893518518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45243.37883101852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45880.45743055556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45880.45618055556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44370.42773148148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44988</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45029.41724537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45880.46145833333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44841</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45932.66504629629</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45713.50678240741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45155.63342592592</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44474</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44827</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45113.31704861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>45113.32241898148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45474.60385416666</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>44457.48010416667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44763.48737268519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>45198</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45771.72923611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45771.73158564815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45943.68887731482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45944.39645833334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44914.46178240741</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44890</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45947.39032407408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45950.35015046296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44893.45002314815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45946.85777777778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45950.34201388889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45951.4453587963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45222.49363425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44827.41934027777</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44944</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45098.42465277778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45958.44385416667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44950.45729166667</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45350.58255787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44949</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45329</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44965.65167824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>45250.61736111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44980.3834375</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45145.38140046296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45966.67945601852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44790.65747685185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45967.5281712963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45967</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45968.48231481481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45051.65592592592</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44580</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45567.47046296296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44910.63961805555</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45972.32638888889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44938.35186342592</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>44987</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>44502</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45288.60790509259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45288.611875</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>45288.61378472222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45975.69505787037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>45016.59216435185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>45975.69686342592</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45975.69922453703</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45288.60931712963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45979.76445601852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45982.55625</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45982.54444444444</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45513.47613425926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>45513.47923611111</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>45981.58409722222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45440.6784837963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45734.61841435185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45084.49240740741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44967.37295138889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45985.36982638889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45988</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45988</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45330</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45988</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45167</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45167</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>44536</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45989.61413194444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45713.41635416666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45601.87053240741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45607.53863425926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45201.49274305555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45999</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45063.61914351852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45624.70769675926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45027.65821759259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44795.45020833334</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45999.56184027778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45999.55164351852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>44998.49670138889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45194.58465277778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>46001.51266203704</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45977</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45050.68993055556</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>46001.51538194445</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>45628.50152777778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>45225</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>45196.43013888889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>46001.65333333334</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44879.36008101852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>45208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>44277</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>46001.65584490741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44861.54428240741</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44861</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45196.42462962963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44722</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>45195.3313425926</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45252.36465277777</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>45253</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45772.66631944444</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>46056.41253472222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45250.90488425926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45161.32863425926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>45159.31636574074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>45182.50636574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>45240</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>45194.58229166667</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21871,7 +21871,7 @@
         <v>45790</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>45695.4821875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>45208</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44725</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44795.44729166666</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>46059.48814814815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45716.5484375</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>45252.66114583334</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>45260.57091435185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44741.63403935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>45225</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>46063.43015046296</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>46063.40934027778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>45219</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>45219.5134375</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>45219</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>46063.42826388889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44706</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44476</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45330</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>46066.23045138889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45552.63032407407</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>45751.39824074074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>46070.36666666667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45198.34445601852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45280.554375</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45252</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44851</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44958.36125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45194</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>46070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>44900</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45145.38269675926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>44965</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>45132</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45425.44631944445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         <v>45978</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45362.46388888889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24042,7 +24042,7 @@
         <v>45362.47046296296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>44879</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>46035.55336805555</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>44613.35957175926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>44600.39641203704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45183.36513888889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>46035.54554398148</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45093.38070601852</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45093</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45075</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>44977.45693287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>44637.38395833333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>45196</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>44657.41376157408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45251.51339120371</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44407.54237268519</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24954,7 +24954,7 @@
         <v>45610.36018518519</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44792.32658564814</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45222.49922453704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44958.41121527777</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>45040.61262731482</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>45210</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>45426</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>45163</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>45163.48689814815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>44593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44958.41222222222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>44519.39357638889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45001.74619212963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45001.75320601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>44490.75412037037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45370.42829861111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45224.50876157408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44942.51495370371</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>44949.51655092592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45624.73905092593</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>45054.50476851852</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45139</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45223</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45058.46469907407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>45309.58023148148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>44883.58351851852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>45716.56181712963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>44336.37304398148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44474</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45695.48090277778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45752.7362037037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45182.48377314815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>45223</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44284.46223379629</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44284.4637037037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45328</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>45182.51306712963</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44671</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44295.30354166667</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>45036</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45012.42086805555</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44949.49581018519</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>45447.55760416666</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45518.36287037037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45736.59657407407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>45222.55752314815</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>45407.32179398148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>45208.36819444445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45243.67643518518</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45001.76078703703</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45001.76564814815</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44942.52636574074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45096.62898148148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45054.50784722222</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45645.71836805555</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45770.65423611111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45770.66146990741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45404.55552083333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45408.36670138889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45583.33034722223</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>45694.59543981482</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45474.5287962963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>45713.87648148148</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45299.48002314815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44986.71053240741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45665.49780092593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45474.51847222223</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45012.42983796296</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45785.66829861111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45645.55591435185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>44679</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45330</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45527.48665509259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45665.50096064815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45798.64680555555</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45798.64412037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45797.40478009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45618.43155092592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45551.38452546296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45573.39606481481</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45488.40027777778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
